--- a/resdataTemp-29.xlsx
+++ b/resdataTemp-29.xlsx
@@ -525,7 +525,7 @@
         <v>941.9582087627762</v>
       </c>
       <c r="E3" t="n">
-        <v>398.3802232965048</v>
+        <v>423.2971497295101</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -559,7 +559,7 @@
         <v>1531.123730073688</v>
       </c>
       <c r="E4" t="n">
-        <v>50.79253978097631</v>
+        <v>9.744186659853716</v>
       </c>
       <c r="F4" t="n">
         <v>0.710320591016015</v>
@@ -584,31 +584,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>561.5272430008486</v>
+        <v>534.4216384170212</v>
       </c>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>1008.581155741425</v>
+        <v>955.2154623567884</v>
       </c>
       <c r="E5" t="n">
-        <v>449.1727630774811</v>
+        <v>433.0413363893638</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7722175499197359</v>
+        <v>0.7786881599304617</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1105641293456155</v>
+        <v>0.1210803831191349</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03708050505819024</v>
+        <v>0.03149208502949866</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07339036490154506</v>
+        <v>0.06219002412781199</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006747450774913327</v>
+        <v>0.006549347793092781</v>
       </c>
     </row>
     <row r="6">
@@ -618,31 +618,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>474.3887967587705</v>
+        <v>461.1779608050314</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>907.8201680634654</v>
+        <v>871.5201173952939</v>
       </c>
       <c r="E6" t="n">
-        <v>449.1727630774811</v>
+        <v>433.0413363893638</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7722175499197359</v>
+        <v>0.7786881599304617</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1105641293456155</v>
+        <v>0.1210803831191349</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03708050505819024</v>
+        <v>0.03149208502949866</v>
       </c>
       <c r="I6" t="n">
-        <v>0.07339036490154506</v>
+        <v>0.06219002412781199</v>
       </c>
       <c r="J6" t="n">
-        <v>0.006747450774913327</v>
+        <v>0.006549347793092781</v>
       </c>
     </row>
     <row r="7">
@@ -652,31 +652,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>266.7935291091543</v>
+        <v>288.6655902510599</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>675.9766131119175</v>
+        <v>679.9991632684162</v>
       </c>
       <c r="E7" t="n">
-        <v>449.1727630774811</v>
+        <v>433.0413363893638</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7722175499197359</v>
+        <v>0.7786881599304617</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1105641293456155</v>
+        <v>0.1210803831191349</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03708050505819024</v>
+        <v>0.03149208502949866</v>
       </c>
       <c r="I7" t="n">
-        <v>0.07339036490154506</v>
+        <v>0.06219002412781199</v>
       </c>
       <c r="J7" t="n">
-        <v>0.006747450774913327</v>
+        <v>0.006549347793092781</v>
       </c>
     </row>
     <row r="8">
@@ -686,31 +686,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>202.2928724315244</v>
+        <v>226.5707383123923</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>606.1587083308717</v>
+        <v>612.8968110038812</v>
       </c>
       <c r="E8" t="n">
-        <v>449.1727630774811</v>
+        <v>433.0413363893638</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7722175499197359</v>
+        <v>0.7786881599304617</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1105641293456155</v>
+        <v>0.1210803831191349</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03708050505819024</v>
+        <v>0.03149208502949866</v>
       </c>
       <c r="I8" t="n">
-        <v>0.07339036490154506</v>
+        <v>0.06219002412781199</v>
       </c>
       <c r="J8" t="n">
-        <v>0.006747450774913327</v>
+        <v>0.006549347793092781</v>
       </c>
     </row>
     <row r="9">
@@ -720,31 +720,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>201.3987700898936</v>
+        <v>225.6484114627602</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>605.1973185613704</v>
+        <v>611.906680781003</v>
       </c>
       <c r="E9" t="n">
-        <v>449.1727630774811</v>
+        <v>433.0413363893638</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7722175499197359</v>
+        <v>0.7786881599304617</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1105641293456155</v>
+        <v>0.1210803831191349</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03708050505819024</v>
+        <v>0.03149208502949866</v>
       </c>
       <c r="I9" t="n">
-        <v>0.07339036490154506</v>
+        <v>0.06219002412781199</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006747450774913327</v>
+        <v>0.006549347793092781</v>
       </c>
     </row>
     <row r="10">
@@ -754,31 +754,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>152.7030558948649</v>
+        <v>166.9705777158632</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>553.0749703288194</v>
+        <v>549.272419734488</v>
       </c>
       <c r="E10" t="n">
-        <v>449.1727630774811</v>
+        <v>433.0413363893638</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7722175499197359</v>
+        <v>0.7786881599304617</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1105641293456155</v>
+        <v>0.1210803831191349</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03708050505819024</v>
+        <v>0.03149208502949866</v>
       </c>
       <c r="I10" t="n">
-        <v>0.07339036490154506</v>
+        <v>0.06219002412781199</v>
       </c>
       <c r="J10" t="n">
-        <v>0.006747450774913327</v>
+        <v>0.006549347793092781</v>
       </c>
     </row>
     <row r="11">
@@ -788,31 +788,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>99.08412348441591</v>
+        <v>109.6225053635947</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>496.1596624163126</v>
+        <v>488.652173895642</v>
       </c>
       <c r="E11" t="n">
-        <v>449.1727630774811</v>
+        <v>433.0413363893638</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7722175499197359</v>
+        <v>0.7786881599304617</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1105641293456155</v>
+        <v>0.1210803831191349</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03708050505819024</v>
+        <v>0.03149208502949866</v>
       </c>
       <c r="I11" t="n">
-        <v>0.07339036490154506</v>
+        <v>0.06219002412781199</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006747450774913327</v>
+        <v>0.006549347793092781</v>
       </c>
     </row>
     <row r="12">
@@ -831,7 +831,7 @@
         <v>288.39</v>
       </c>
       <c r="E12" t="n">
-        <v>48.14670778587961</v>
+        <v>9.23660265358019</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -855,7 +855,7 @@
         <v>881.5</v>
       </c>
       <c r="E13" t="n">
-        <v>2.645831995096733</v>
+        <v>0.5075840062735325</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -911,16 +911,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.140364127908472</v>
+        <v>0.9339350301991848</v>
       </c>
       <c r="C2" t="n">
-        <v>1.193069795891158</v>
+        <v>1.010769303776234</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9558234831154049</v>
+        <v>0.9239843619211658</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4553539763484821</v>
+        <v>0.5022365484049651</v>
       </c>
     </row>
     <row r="3">
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>76.47929420607734</v>
+        <v>68.09302488368806</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -993,12 +993,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34.92081546019828</v>
+        <v>30.52027942873917</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8493060670095472</v>
+        <v>0.8492079408889139</v>
       </c>
     </row>
     <row r="9">
@@ -1008,12 +1008,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.304194290779924</v>
+        <v>8.365583350021661</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8371966000496781</v>
+        <v>0.837204024052128</v>
       </c>
     </row>
     <row r="10">
@@ -1023,12 +1023,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.525084891211067</v>
+        <v>4.904041362941451</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.814952555596028</v>
+        <v>0.8149479997207167</v>
       </c>
     </row>
     <row r="11">
@@ -1038,12 +1038,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.72919956388807</v>
+        <v>24.30312074198579</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.811426881598631</v>
+        <v>0.8293616632858576</v>
       </c>
     </row>
     <row r="12">
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.08204048115608897</v>
+        <v>0.3155006682878402</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08426536320608081</v>
+        <v>0.329610232364389</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9735967191578985</v>
+        <v>0.9571931854926444</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6512327066142518</v>
+        <v>0.1506749865671964</v>
       </c>
     </row>
     <row r="13">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>319769.7735337405</v>
+        <v>47222.8490997964</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -1085,7 +1085,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>480066.4272424217</v>
+        <v>70850.26378984976</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -1134,10 +1134,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39499.07339321067</v>
+        <v>39813.11459285161</v>
       </c>
       <c r="C2" t="n">
-        <v>39898.05393253603</v>
+        <v>40215.26726550667</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1150,10 +1150,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>86458.33870713584</v>
+        <v>89918.72418594811</v>
       </c>
       <c r="C3" t="n">
-        <v>87331.65525973318</v>
+        <v>90826.99412722031</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1166,10 +1166,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37715.8620760195</v>
+        <v>36911.40751047576</v>
       </c>
       <c r="C4" t="n">
-        <v>38096.83037981767</v>
+        <v>37284.25001058158</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1182,10 +1182,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>504.1069849334797</v>
+        <v>501.6863634703698</v>
       </c>
       <c r="C5" t="n">
-        <v>509.1989746802825</v>
+        <v>506.753902495323</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33087.87479500468</v>
+        <v>32235.29755471379</v>
       </c>
       <c r="C6" t="n">
-        <v>33422.09575252998</v>
+        <v>32560.90662092303</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1214,10 +1214,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>39036.27088316936</v>
+        <v>38039.02314853664</v>
       </c>
       <c r="C7" t="n">
-        <v>39430.57664966602</v>
+        <v>38423.25570559256</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>80155.58940211567</v>
+        <v>15029.93640519253</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -1356,7 +1356,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>251631.3592147091</v>
+        <v>37131.16368707026</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -1414,10 +1414,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>458631202.4222035</v>
+        <v>79948368.3604451</v>
       </c>
       <c r="C3" t="n">
-        <v>68.89039853363778</v>
+        <v>37.90152249156853</v>
       </c>
       <c r="D3" t="n">
         <v>10000</v>
@@ -1498,16 +1498,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>501.0688222662191</v>
+        <v>511.9449762072651</v>
       </c>
       <c r="C3" t="n">
-        <v>8.080812067457398</v>
+        <v>6.192123109414291</v>
       </c>
       <c r="D3" t="n">
-        <v>3401.174882225554</v>
+        <v>3449.336716630317</v>
       </c>
       <c r="E3" t="n">
-        <v>60.88928507522718</v>
+        <v>53.48973087181663</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -1519,16 +1519,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298.5016266237809</v>
+        <v>281.1513935624558</v>
       </c>
       <c r="C4" t="n">
-        <v>8.408083425420486</v>
+        <v>6.528767406477712</v>
       </c>
       <c r="D4" t="n">
-        <v>2752.4693588603</v>
+        <v>2778.529947354084</v>
       </c>
       <c r="E4" t="n">
-        <v>60.88928507522718</v>
+        <v>53.48973087181663</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -1540,16 +1540,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>297.8062267776479</v>
+        <v>281.1513935624558</v>
       </c>
       <c r="C5" t="n">
-        <v>8.408083425420486</v>
+        <v>6.528767406477712</v>
       </c>
       <c r="D5" t="n">
-        <v>1332.678452138163</v>
+        <v>1243.522801251457</v>
       </c>
       <c r="E5" t="n">
-        <v>60.88928507522718</v>
+        <v>53.48973087181663</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -1561,16 +1561,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>167.6920941705311</v>
+        <v>166.1903465497332</v>
       </c>
       <c r="C6" t="n">
-        <v>8.408083425420486</v>
+        <v>6.528767406477712</v>
       </c>
       <c r="D6" t="n">
-        <v>713.2873063459099</v>
+        <v>705.7117713070993</v>
       </c>
       <c r="E6" t="n">
-        <v>60.88928507522718</v>
+        <v>53.48973087181663</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -1582,16 +1582,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>164.3858454817689</v>
+        <v>156.986246683275</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6903275658386813</v>
+        <v>0.5722713650353604</v>
       </c>
       <c r="D7" t="n">
-        <v>694.5588202666337</v>
+        <v>662.3943192240999</v>
       </c>
       <c r="E7" t="n">
-        <v>60.88928507522718</v>
+        <v>53.48973087181663</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -1603,16 +1603,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>177.5351505113278</v>
+        <v>169.4898130778488</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6843250327800774</v>
+        <v>0.5671299447789215</v>
       </c>
       <c r="D8" t="n">
-        <v>2794.641850780569</v>
+        <v>2784.255853425645</v>
       </c>
       <c r="E8" t="n">
-        <v>15.5179211783137</v>
+        <v>14.06625621683433</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -1624,16 +1624,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>164.3858453462105</v>
+        <v>156.9862465628286</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6903275658386813</v>
+        <v>0.5722713650353604</v>
       </c>
       <c r="D9" t="n">
-        <v>2762.164403969915</v>
+        <v>2754.077754243827</v>
       </c>
       <c r="E9" t="n">
-        <v>15.5179211783137</v>
+        <v>14.06625621683433</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -1645,16 +1645,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>161.3668961810561</v>
+        <v>156.986246683275</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6903275658386813</v>
+        <v>0.5722713650353604</v>
       </c>
       <c r="D10" t="n">
-        <v>681.4440073800483</v>
+        <v>700.4034142025407</v>
       </c>
       <c r="E10" t="n">
-        <v>76.40720625354088</v>
+        <v>67.55598708865095</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -1666,16 +1666,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>161.3668961810561</v>
+        <v>156.986246683275</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6903275658386813</v>
+        <v>0.5722713650353604</v>
       </c>
       <c r="D11" t="n">
-        <v>681.4440073800483</v>
+        <v>700.4034142025407</v>
       </c>
       <c r="E11" t="n">
-        <v>90.84524094539839</v>
+        <v>67.55500066674163</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -1687,16 +1687,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>60</v>
+        <v>75.28554914151943</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6903275658386813</v>
+        <v>0.5722713650353604</v>
       </c>
       <c r="D12" t="n">
-        <v>251.7432969290439</v>
+        <v>315.7577260967179</v>
       </c>
       <c r="E12" t="n">
-        <v>90.84227652857879</v>
+        <v>67.55598708865095</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -1708,16 +1708,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>40.57873532374521</v>
+        <v>75.28522568104978</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>170.5614933563492</v>
+        <v>315.7563701187941</v>
       </c>
       <c r="E13" t="n">
-        <v>76.95330926174903</v>
+        <v>67.55110560156363</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -1729,16 +1729,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>40.57873532374521</v>
+        <v>74.61495987502371</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>170.5614933563492</v>
+        <v>312.9467005158106</v>
       </c>
       <c r="E14" t="n">
-        <v>76.95330926174903</v>
+        <v>59.17700908909541</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -1750,16 +1750,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>117.049519824427</v>
+        <v>115.250091675488</v>
       </c>
       <c r="C15" t="n">
-        <v>0.180803940539021</v>
+        <v>0.1705667986518371</v>
       </c>
       <c r="D15" t="n">
-        <v>491.2857512905558</v>
+        <v>483.6536458696516</v>
       </c>
       <c r="E15" t="n">
-        <v>10.46428076904177</v>
+        <v>55.3426157556947</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -1771,16 +1771,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>78.22756409040744</v>
+        <v>78.55078726719461</v>
       </c>
       <c r="C16" t="n">
-        <v>0.180803747605201</v>
+        <v>0.1705667705380754</v>
       </c>
       <c r="D16" t="n">
-        <v>327.6815239632268</v>
+        <v>329.0293903143182</v>
       </c>
       <c r="E16" t="n">
-        <v>10.46435877760799</v>
+        <v>55.34306136813723</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -1801,7 +1801,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>124.6935890825358</v>
+        <v>625.5893519564371</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1822,7 +1822,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>15.70776534824453</v>
+        <v>78.80606226185174</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -1834,16 +1834,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.77060404431298</v>
+        <v>95.67517111451731</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>400.9915191335385</v>
+        <v>400.591941456484</v>
       </c>
       <c r="E19" t="n">
-        <v>15.70776534824453</v>
+        <v>78.80606226185174</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1855,16 +1855,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>195.7172183265346</v>
+        <v>139.4706515896635</v>
       </c>
       <c r="C20" t="n">
-        <v>0.209177698536624</v>
+        <v>0.2228040896791079</v>
       </c>
       <c r="D20" t="n">
-        <v>2861.649690788312</v>
+        <v>2745.219799188365</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6602983151559709</v>
+        <v>9.127790039514919</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1876,16 +1876,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>120.0070543784606</v>
+        <v>122.0112923923308</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1987188136097928</v>
+        <v>0.2116638851951525</v>
       </c>
       <c r="D21" t="n">
-        <v>503.84165899782</v>
+        <v>512.3591115840487</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6602983151559709</v>
+        <v>9.127790039514919</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -1897,16 +1897,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>117.0478614220679</v>
+        <v>112.2968180717152</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>490.0793957741985</v>
+        <v>470.1867772662717</v>
       </c>
       <c r="E22" t="n">
-        <v>124.6935890825358</v>
+        <v>625.5893519564371</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -1927,7 +1927,7 @@
         <v>502.4400000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>124.6935890825358</v>
+        <v>625.5893519564371</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -1939,7 +1939,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>73.24634653785328</v>
+        <v>73.23432476449062</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -1948,7 +1948,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>124.6935890825358</v>
+        <v>625.5893519564371</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -1960,16 +1960,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>187.7609375050552</v>
+        <v>122.9141203872234</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1903199374094958</v>
+        <v>0.1795439985808812</v>
       </c>
       <c r="D25" t="n">
-        <v>2846.568260221793</v>
+        <v>2714.312315983911</v>
       </c>
       <c r="E25" t="n">
-        <v>9.80397313251383</v>
+        <v>46.21484837675299</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -1981,19 +1981,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>498.4917010981947</v>
+        <v>509.3420238195291</v>
       </c>
       <c r="C26" t="n">
-        <v>7.54946490794643</v>
+        <v>5.638744148190423</v>
       </c>
       <c r="D26" t="n">
-        <v>3401.174882225554</v>
+        <v>3449.336716630317</v>
       </c>
       <c r="E26" t="n">
-        <v>61.43538808343533</v>
+        <v>45.11018640285194</v>
       </c>
       <c r="F26" t="n">
-        <v>6.753860374531783</v>
+        <v>6.943719867263708</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -2006,19 +2006,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>190.1874850621357</v>
+        <v>207.5192147846183</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5339170893490326</v>
+        <v>0.4312872323926725</v>
       </c>
       <c r="D27" t="n">
-        <v>2832.759567378476</v>
+        <v>2875.174296107176</v>
       </c>
       <c r="E27" t="n">
-        <v>61.43538808343533</v>
+        <v>45.11018640285194</v>
       </c>
       <c r="F27" t="n">
-        <v>6.982319230570926</v>
+        <v>7.168159233283471</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -2031,19 +2031,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>175.099579970728</v>
+        <v>166.9732701891415</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6024479297565929</v>
+        <v>0.4875959999792661</v>
       </c>
       <c r="D28" t="n">
-        <v>2794.641850780569</v>
+        <v>2784.255853425645</v>
       </c>
       <c r="E28" t="n">
-        <v>15.5179211783137</v>
+        <v>14.06625621683433</v>
       </c>
       <c r="F28" t="n">
-        <v>6.84496017836904</v>
+        <v>6.915379888321138</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -2056,19 +2056,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>186.683415654716</v>
+        <v>197.2624421123892</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5339170893490326</v>
+        <v>0.4312872323926725</v>
       </c>
       <c r="D29" t="n">
-        <v>2825.07298797938</v>
+        <v>2853.562957997295</v>
       </c>
       <c r="E29" t="n">
-        <v>76.95330926174903</v>
+        <v>59.17644261968627</v>
       </c>
       <c r="F29" t="n">
-        <v>6.965666532612376</v>
+        <v>7.122710992253483</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -2081,22 +2081,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>127.2113854571493</v>
+        <v>139.4722612129896</v>
       </c>
       <c r="C30" t="n">
-        <v>0.248485943908111</v>
+        <v>0.2227951540731324</v>
       </c>
       <c r="D30" t="n">
-        <v>2704.165981119771</v>
+        <v>2745.22279671365</v>
       </c>
       <c r="E30" t="n">
-        <v>76.95330926174903</v>
+        <v>59.17644261968627</v>
       </c>
       <c r="F30" t="n">
-        <v>7.02439319252335</v>
+        <v>7.174998394553792</v>
       </c>
       <c r="G30" t="n">
-        <v>99.44796340281357</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31">
@@ -2106,22 +2106,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.2271913168952</v>
+        <v>122.9153282638762</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1493902801649282</v>
+        <v>0.1795469707963518</v>
       </c>
       <c r="D31" t="n">
-        <v>2632.368095567922</v>
+        <v>2714.314564683536</v>
       </c>
       <c r="E31" t="n">
-        <v>76.95330926174903</v>
+        <v>50.04867524074456</v>
       </c>
       <c r="F31" t="n">
-        <v>7.066806760767922</v>
+        <v>7.196043186072486</v>
       </c>
       <c r="G31" t="n">
-        <v>97.2801299413052</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32">
@@ -2131,22 +2131,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>111.2271913168952</v>
+        <v>113.9705445166263</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1493902801649282</v>
+        <v>0.007881042466508347</v>
       </c>
       <c r="D32" t="n">
-        <v>2632.368095567922</v>
+        <v>2714.314564683536</v>
       </c>
       <c r="E32" t="n">
-        <v>76.95330926174903</v>
+        <v>3.833947720958179</v>
       </c>
       <c r="F32" t="n">
-        <v>7.066806760767922</v>
+        <v>8.62928726578931</v>
       </c>
       <c r="G32" t="n">
-        <v>97.2801299413052</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33">
@@ -2156,22 +2156,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>40.4694595230701</v>
+        <v>112.9692247584537</v>
       </c>
       <c r="C33" t="n">
-        <v>0.00757178377985105</v>
+        <v>0.001948342312956304</v>
       </c>
       <c r="D33" t="n">
-        <v>2285.025014155122</v>
+        <v>2713.023388374374</v>
       </c>
       <c r="E33" t="n">
-        <v>76.95330926174903</v>
+        <v>3.833947720958179</v>
       </c>
       <c r="F33" t="n">
-        <v>7.324193425615995</v>
+        <v>9.270573734861436</v>
       </c>
       <c r="G33" t="n">
-        <v>87.96914738251397</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34">
@@ -2181,16 +2181,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>40.46945952141601</v>
+        <v>17.08105083519223</v>
       </c>
       <c r="C34" t="n">
-        <v>0.00757178377985105</v>
+        <v>0.001948342312956304</v>
       </c>
       <c r="D34" t="n">
-        <v>169.495386103222</v>
+        <v>71.69655536324083</v>
       </c>
       <c r="E34" t="n">
-        <v>76.95330926174903</v>
+        <v>3.833947720958179</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -2202,16 +2202,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>40.57873532374521</v>
+        <v>19.09762538120015</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>170.5614933563492</v>
+        <v>80.79296414168221</v>
       </c>
       <c r="E35" t="n">
-        <v>76.95330926174903</v>
+        <v>3.833947720958179</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -2307,16 +2307,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>519.8232078848972</v>
+        <v>496.9511967724745</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3512.034774695051</v>
+        <v>3461.516282034162</v>
       </c>
       <c r="E40" t="n">
-        <v>38.57369966144585</v>
+        <v>7.232936057846831</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -2331,13 +2331,13 @@
         <v>80</v>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="D41" t="n">
-        <v>336.57</v>
+        <v>335.6113889122297</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>8.374096512468231</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -2349,16 +2349,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>534.8232078848972</v>
+        <v>511.9511967724745</v>
       </c>
       <c r="C42" t="n">
-        <v>3.83050800666108</v>
+        <v>6.191638213085064</v>
       </c>
       <c r="D42" t="n">
-        <v>3527.323163619118</v>
+        <v>3449.357637295026</v>
       </c>
       <c r="E42" t="n">
-        <v>41.31135030764653</v>
+        <v>8.374096512468231</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -2460,7 +2460,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>45.44179595436075</v>
+        <v>8.520769523700242</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -2503,7 +2503,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>45.44179595436075</v>
+        <v>8.520769523700242</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -2546,7 +2546,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>45.44179595436075</v>
+        <v>8.520769523700242</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -2589,7 +2589,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>45.44179595436075</v>
+        <v>8.520769523700242</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2629,10 +2629,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1348.041621038311</v>
+        <v>1348.04162103831</v>
       </c>
       <c r="E6" t="n">
-        <v>18.07474255513433</v>
+        <v>3.389186370785088</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -2641,22 +2641,22 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1686684666338336</v>
+        <v>0.1686684666338337</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944177</v>
+        <v>0.05094889585944153</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09767435453489638</v>
+        <v>0.09767435453489641</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173056</v>
+        <v>0.6806996788173059</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002008604154522552</v>
+        <v>0.002008604154522553</v>
       </c>
     </row>
     <row r="7">
@@ -2665,42 +2665,18 @@
           <t>SGaccum-Separacc</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>68.89039853363778</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1253.858122536166</v>
-      </c>
-      <c r="E7" t="n">
-        <v>365775.9950500099</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.168738364456343</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.0503573198627571</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.0975081144748292</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.681387369772999</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.00200883143307171</v>
-      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -2708,42 +2684,18 @@
           <t>Separacc-Sepout</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>68.89039853363778</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1176.933032819057</v>
-      </c>
-      <c r="E8" t="n">
-        <v>345103.4724731601</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.1749493387248126</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.01540257634858164</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.1010972235190077</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.706468088281535</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.002082773126063107</v>
-      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -2751,42 +2703,18 @@
           <t>Sepout-COMB</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>68.89039853363778</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1176.933032819057</v>
-      </c>
-      <c r="E9" t="n">
-        <v>22.88440781063612</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.1749493387248126</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.01540257634858164</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.1010972235190077</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.706468088281535</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.002082773126063107</v>
-      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -2794,42 +2722,18 @@
           <t>Sepout-GTU</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>68.89039853363778</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1176.933032819057</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1.081111111111111</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.1749493387248126</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.01540257634858164</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1010972235190077</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.706468088281535</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.002082773126063107</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -2837,18 +2741,10 @@
           <t>AIR-COMP</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>15</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>293.1871693088577</v>
-      </c>
-      <c r="E11" t="n">
-        <v>945.1895005153433</v>
-      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
@@ -2864,18 +2760,10 @@
           <t>COMP-COMB</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>343.3557890055408</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="D12" t="n">
-        <v>631.5000402827663</v>
-      </c>
-      <c r="E12" t="n">
-        <v>945.1895005153433</v>
-      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
@@ -2891,42 +2779,18 @@
           <t>COMB-TURB</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>750</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1186.972770918916</v>
-      </c>
-      <c r="E13" t="n">
-        <v>968.0739112089805</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.7493418122188148</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.1678734524603385</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.0169297819262364</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.009606946310497626</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.05624800708411271</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -2934,42 +2798,18 @@
           <t>TURB-COOL</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>315.4016713247572</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>691.0742432508268</v>
-      </c>
-      <c r="E14" t="n">
-        <v>968.0739112089805</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.7493418122188148</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.1678734524603385</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.0169297819262364</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.009606946310497626</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.05624800708411271</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -2977,42 +2817,18 @@
           <t>COOL-EX</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>70</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>431.1443388280757</v>
-      </c>
-      <c r="E15" t="n">
-        <v>968.0739112089805</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.7493418122188148</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.1678734524603385</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.0169297819262364</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.009606946310497626</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.05624800708411271</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3062,16 +2878,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.140364127908472</v>
+        <v>2.317038853972448</v>
       </c>
       <c r="C2" t="n">
-        <v>1.193069795891158</v>
+        <v>2.692525069145058</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9558234831154049</v>
+        <v>0.8605449511035242</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4553539763484821</v>
+        <v>0.1508124489680766</v>
       </c>
     </row>
     <row r="3">
@@ -3104,11 +2920,11 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>165.66</v>
+        <v>120.7482657479961</v>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>34.07583168780608</v>
+        <v>30.89276413122775</v>
       </c>
     </row>
     <row r="6">
@@ -3119,7 +2935,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>6.30138102032644</v>
+        <v>6.206088221754092</v>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -3131,7 +2947,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>76.47929420607734</v>
+        <v>33.86362552252936</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -3144,12 +2960,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34.92081546019828</v>
+        <v>25.90057381531155</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8493060670095472</v>
+        <v>0.8486489750590748</v>
       </c>
     </row>
     <row r="9">
@@ -3159,12 +2975,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.304194290779924</v>
+        <v>6.41118533760918</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8371966000496781</v>
+        <v>0.835620248367363</v>
       </c>
     </row>
     <row r="10">
@@ -3174,12 +2990,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.525084891211067</v>
+        <v>1.546916067140757</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.814952555596028</v>
+        <v>0.7884283510470007</v>
       </c>
     </row>
     <row r="11">
@@ -3189,12 +3005,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.72919956388807</v>
+        <v>0.004950302467866778</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.811426881598631</v>
+        <v>0.006089782334818116</v>
       </c>
     </row>
     <row r="12">
@@ -3204,16 +3020,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.08204048115608897</v>
+        <v>0.03487515570500927</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08426536320608081</v>
+        <v>0.03907728258151083</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9735967191578985</v>
+        <v>0.8924662463993909</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6512327066142518</v>
+        <v>0.07642926562499497</v>
       </c>
     </row>
     <row r="13">
@@ -3222,9 +3038,7 @@
           <t>SGgtu_comp</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>319769.7735337405</v>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
@@ -3235,9 +3049,7 @@
           <t>SGgtu_turb</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>480066.4272424217</v>
-      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
@@ -3285,10 +3097,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39499.07339321067</v>
+        <v>35881.10859137743</v>
       </c>
       <c r="C2" t="n">
-        <v>39898.05393253603</v>
+        <v>36243.54403169437</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -3301,10 +3113,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>86458.33870713584</v>
+        <v>82107.1250224525</v>
       </c>
       <c r="C3" t="n">
-        <v>87331.65525973318</v>
+        <v>82936.4899216692</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -3317,10 +3129,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37715.8620760195</v>
+        <v>28767.51137650903</v>
       </c>
       <c r="C4" t="n">
-        <v>38096.83037981767</v>
+        <v>29058.09229950407</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -3333,10 +3145,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>504.1069849334797</v>
+        <v>424.4796417655185</v>
       </c>
       <c r="C5" t="n">
-        <v>509.1989746802825</v>
+        <v>428.7673149146652</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -3349,10 +3161,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33087.87479500468</v>
+        <v>26851.9918662697</v>
       </c>
       <c r="C6" t="n">
-        <v>33422.09575252998</v>
+        <v>27123.22410734313</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -3365,10 +3177,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>39036.27088316936</v>
+        <v>25988.56154760262</v>
       </c>
       <c r="C7" t="n">
-        <v>39430.57664966602</v>
+        <v>26251.07227030567</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -3381,11 +3193,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>20.17727270849972</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="9">
@@ -3395,11 +3207,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>102.3180534318908</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="10">
@@ -3409,11 +3221,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>8.471804691689618</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="11">
@@ -3423,7 +3235,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>24567.56031602865</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -3435,7 +3247,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1507.25128326476</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -3447,7 +3259,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>16176.59788610799</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -3459,7 +3271,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>5604.467147062803</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -3471,7 +3283,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>4048.973849491439</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -3483,7 +3295,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>80155.58940211567</v>
+        <v>15029.93640519253</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -3495,7 +3307,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>26190.62868501154</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -3506,9 +3318,7 @@
           <t>SGgtu_Qsw</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>251631.3592147091</v>
-      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
     </row>
@@ -3564,11 +3374,9 @@
           <t>PKM</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>458631202.4222035</v>
-      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>68.89039853363778</v>
+        <v>250</v>
       </c>
       <c r="D3" t="n">
         <v>10000</v>
@@ -3665,16 +3473,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>527.6002734912</v>
+        <v>542.1</v>
       </c>
       <c r="C3" t="n">
         <v>0.1</v>
       </c>
       <c r="D3" t="n">
-        <v>941.9582087627762</v>
+        <v>958.8691985312861</v>
       </c>
       <c r="E3" t="n">
-        <v>398.3802232965048</v>
+        <v>503.8</v>
       </c>
       <c r="F3" t="n">
         <v>0.7803</v>
@@ -3698,33 +3506,17 @@
           <t>REF-SMESH</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>800</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
         <v>0.1</v>
       </c>
-      <c r="D4" t="n">
-        <v>1531.123730073688</v>
-      </c>
-      <c r="E4" t="n">
-        <v>50.79253978097631</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.710320591016015</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.00996710270335893</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.090538556815177</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.180531273012258</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.008642476453191781</v>
-      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -3732,33 +3524,19 @@
           <t>GTU-PEVD</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>561.5272430008486</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
         <v>0.1</v>
       </c>
-      <c r="D5" t="n">
-        <v>1008.581155741425</v>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>449.1727630774811</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.7722175499197359</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.1105641293456155</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.03708050505819024</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.07339036490154506</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.006747450774913327</v>
-      </c>
+        <v>503.8</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -3766,33 +3544,17 @@
           <t>PEVD-IVD</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>474.3887967587705</v>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
-      <c r="D6" t="n">
-        <v>907.8201680634654</v>
-      </c>
-      <c r="E6" t="n">
-        <v>449.1727630774811</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.7722175499197359</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.1105641293456155</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.03708050505819024</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.07339036490154506</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.006747450774913327</v>
-      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -3800,33 +3562,17 @@
           <t>IVD-EVD</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>266.7935291091543</v>
-      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
-      <c r="D7" t="n">
-        <v>675.9766131119175</v>
-      </c>
-      <c r="E7" t="n">
-        <v>449.1727630774811</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.7722175499197359</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.1105641293456155</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.03708050505819024</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.07339036490154506</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.006747450774913327</v>
-      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -3834,33 +3580,17 @@
           <t>EVD-PPND</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>202.2928724315244</v>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
-      <c r="D8" t="n">
-        <v>606.1587083308717</v>
-      </c>
-      <c r="E8" t="n">
-        <v>449.1727630774811</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.7722175499197359</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.1105641293456155</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.03708050505819024</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.07339036490154506</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.006747450774913327</v>
-      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -3868,33 +3598,17 @@
           <t>PPND-IND</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>201.3987700898936</v>
-      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
-      <c r="D9" t="n">
-        <v>605.1973185613704</v>
-      </c>
-      <c r="E9" t="n">
-        <v>449.1727630774811</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.7722175499197359</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.1105641293456155</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.03708050505819024</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.07339036490154506</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.006747450774913327</v>
-      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -3902,33 +3616,17 @@
           <t>IND-GPK</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>152.7030558948649</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
-      <c r="D10" t="n">
-        <v>553.0749703288194</v>
-      </c>
-      <c r="E10" t="n">
-        <v>449.1727630774811</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.7722175499197359</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.1105641293456155</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.03708050505819024</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.07339036490154506</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.006747450774913327</v>
-      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -3936,33 +3634,17 @@
           <t>GPK-out</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>99.08412348441591</v>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
-      <c r="D11" t="n">
-        <v>496.1596624163126</v>
-      </c>
-      <c r="E11" t="n">
-        <v>449.1727630774811</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.7722175499197359</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.1105641293456155</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.03708050505819024</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.07339036490154506</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.006747450774913327</v>
-      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -3970,18 +3652,12 @@
           <t>AIR-REF</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>15</v>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
         <v>0.1</v>
       </c>
-      <c r="D12" t="n">
-        <v>288.39</v>
-      </c>
-      <c r="E12" t="n">
-        <v>48.14670778587961</v>
-      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
@@ -3994,18 +3670,12 @@
           <t>CH4-REF</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>15</v>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="D13" t="n">
-        <v>881.5</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2.645831995096733</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
@@ -4087,16 +3757,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>501.0688222662191</v>
+        <v>502.4109876601437</v>
       </c>
       <c r="C3" t="n">
-        <v>8.080812067457398</v>
+        <v>7.214366393328742</v>
       </c>
       <c r="D3" t="n">
-        <v>3401.174882225554</v>
+        <v>3414.730147944701</v>
       </c>
       <c r="E3" t="n">
-        <v>60.88928507522718</v>
+        <v>61.23889721214888</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4108,16 +3778,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298.5016266237809</v>
+        <v>291.3327519978299</v>
       </c>
       <c r="C4" t="n">
-        <v>8.408083425420486</v>
+        <v>7.587332441836599</v>
       </c>
       <c r="D4" t="n">
-        <v>2752.4693588603</v>
+        <v>2764.664043541084</v>
       </c>
       <c r="E4" t="n">
-        <v>60.88928507522718</v>
+        <v>61.23889721214888</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4129,16 +3799,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>297.8062267776479</v>
+        <v>291.1922253956424</v>
       </c>
       <c r="C5" t="n">
-        <v>8.408083425420486</v>
+        <v>7.587332441836599</v>
       </c>
       <c r="D5" t="n">
-        <v>1332.678452138163</v>
+        <v>1296.468968254459</v>
       </c>
       <c r="E5" t="n">
-        <v>60.88928507522718</v>
+        <v>61.23889721214888</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4150,16 +3820,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>167.6920941705311</v>
+        <v>163.2871987301921</v>
       </c>
       <c r="C6" t="n">
-        <v>8.408083425420486</v>
+        <v>7.587332441836599</v>
       </c>
       <c r="D6" t="n">
-        <v>713.2873063459099</v>
+        <v>693.7602030341026</v>
       </c>
       <c r="E6" t="n">
-        <v>60.88928507522718</v>
+        <v>61.23889721214888</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4171,16 +3841,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>164.3858454817689</v>
+        <v>160.6986462839952</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6903275658386813</v>
+        <v>0.6292982809429203</v>
       </c>
       <c r="D7" t="n">
-        <v>694.5588202666337</v>
+        <v>678.5095196822491</v>
       </c>
       <c r="E7" t="n">
-        <v>60.88928507522718</v>
+        <v>61.23889721214888</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4192,16 +3862,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>177.5351505113278</v>
+        <v>174.4797477968384</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6843250327800774</v>
+        <v>0.6232121841602161</v>
       </c>
       <c r="D8" t="n">
-        <v>2794.641850780569</v>
+        <v>2791.756128763137</v>
       </c>
       <c r="E8" t="n">
-        <v>15.5179211783137</v>
+        <v>14.95332454734173</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4213,16 +3883,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>164.3858453462105</v>
+        <v>160.6986461560967</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6903275658386813</v>
+        <v>0.6292982809429203</v>
       </c>
       <c r="D9" t="n">
-        <v>2762.164403969915</v>
+        <v>2758.207500306355</v>
       </c>
       <c r="E9" t="n">
-        <v>15.5179211783137</v>
+        <v>14.95332454734173</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4234,16 +3904,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>161.3668961810561</v>
+        <v>157.2548719107835</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6903275658386813</v>
+        <v>0.6292982809429203</v>
       </c>
       <c r="D10" t="n">
-        <v>681.4440073800483</v>
+        <v>663.5903971629873</v>
       </c>
       <c r="E10" t="n">
-        <v>76.40720625354088</v>
+        <v>76.19222175949061</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4255,16 +3925,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>161.3668961810561</v>
+        <v>157.2548719107835</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6903275658386813</v>
+        <v>0.6292982809429203</v>
       </c>
       <c r="D11" t="n">
-        <v>681.4440073800483</v>
+        <v>663.5903971629873</v>
       </c>
       <c r="E11" t="n">
-        <v>90.84524094539839</v>
+        <v>92.3505070377964</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4279,13 +3949,13 @@
         <v>60</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6903275658386813</v>
+        <v>0.6292982809429203</v>
       </c>
       <c r="D12" t="n">
-        <v>251.7432969290439</v>
+        <v>251.6920520610863</v>
       </c>
       <c r="E12" t="n">
-        <v>90.84227652857879</v>
+        <v>92.34297510347216</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4297,16 +3967,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>40.57873532374521</v>
+        <v>39.09925971900418</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>170.5614933563492</v>
+        <v>164.3803379348998</v>
       </c>
       <c r="E13" t="n">
-        <v>76.95330926174903</v>
+        <v>68.44305541915836</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4318,16 +3988,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>40.57873532374521</v>
+        <v>39.09925971900418</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>170.5614933563492</v>
+        <v>164.3803379348998</v>
       </c>
       <c r="E14" t="n">
-        <v>76.95330926174903</v>
+        <v>68.44305541915836</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4339,16 +4009,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>117.049519824427</v>
+        <v>115.250091675488</v>
       </c>
       <c r="C15" t="n">
-        <v>0.180803940539021</v>
+        <v>0.1705667986518371</v>
       </c>
       <c r="D15" t="n">
-        <v>491.2857512905558</v>
+        <v>483.6536458696516</v>
       </c>
       <c r="E15" t="n">
-        <v>10.46428076904177</v>
+        <v>55.3426157556947</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4360,16 +4030,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>78.22756409040744</v>
+        <v>78.55078726719461</v>
       </c>
       <c r="C16" t="n">
-        <v>0.180803747605201</v>
+        <v>0.1705667705380754</v>
       </c>
       <c r="D16" t="n">
-        <v>327.6815239632268</v>
+        <v>329.0293903143182</v>
       </c>
       <c r="E16" t="n">
-        <v>10.46435877760799</v>
+        <v>55.34306136813723</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -4390,7 +4060,7 @@
         <v>192.602</v>
       </c>
       <c r="E17" t="n">
-        <v>124.6935890825358</v>
+        <v>625.5893519564371</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -4411,7 +4081,7 @@
         <v>192.602</v>
       </c>
       <c r="E18" t="n">
-        <v>15.70776534824453</v>
+        <v>78.80606226185174</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -4423,16 +4093,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.77060404431298</v>
+        <v>95.67517111451731</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>400.9915191335385</v>
+        <v>400.591941456484</v>
       </c>
       <c r="E19" t="n">
-        <v>15.70776534824453</v>
+        <v>78.80606226185174</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -4444,16 +4114,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>195.7172183265346</v>
+        <v>139.4706515896635</v>
       </c>
       <c r="C20" t="n">
-        <v>0.209177698536624</v>
+        <v>0.2228040896791079</v>
       </c>
       <c r="D20" t="n">
-        <v>2861.649690788312</v>
+        <v>2745.219799188365</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6602983151559709</v>
+        <v>9.127790039514919</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -4465,16 +4135,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>120.0070543784606</v>
+        <v>122.0112923923308</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1987188136097928</v>
+        <v>0.2116638851951525</v>
       </c>
       <c r="D21" t="n">
-        <v>503.84165899782</v>
+        <v>512.3591115840487</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6602983151559709</v>
+        <v>9.127790039514919</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -4486,16 +4156,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>117.0478614220679</v>
+        <v>112.2968180717152</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>490.0793957741985</v>
+        <v>470.1867772662717</v>
       </c>
       <c r="E22" t="n">
-        <v>124.6935890825358</v>
+        <v>625.5893519564371</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
@@ -4516,7 +4186,7 @@
         <v>502.4400000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>124.6935890825358</v>
+        <v>625.5893519564371</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -4528,7 +4198,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>73.24634653785328</v>
+        <v>73.23432476449062</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -4537,7 +4207,7 @@
         <v>202.3831279625776</v>
       </c>
       <c r="E24" t="n">
-        <v>124.6935890825358</v>
+        <v>625.5893519564371</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -4549,16 +4219,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>187.7609375050552</v>
+        <v>122.9141203872234</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1903199374094958</v>
+        <v>0.1795439985808812</v>
       </c>
       <c r="D25" t="n">
-        <v>2846.568260221793</v>
+        <v>2714.312315983911</v>
       </c>
       <c r="E25" t="n">
-        <v>9.80397313251383</v>
+        <v>46.21484837675299</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -4570,19 +4240,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>498.4917010981947</v>
+        <v>499.4599004624122</v>
       </c>
       <c r="C26" t="n">
-        <v>7.54946490794643</v>
+        <v>6.606238727180492</v>
       </c>
       <c r="D26" t="n">
-        <v>3401.174882225554</v>
+        <v>3414.730147944701</v>
       </c>
       <c r="E26" t="n">
-        <v>61.43538808343533</v>
+        <v>53.48973087181663</v>
       </c>
       <c r="F26" t="n">
-        <v>6.753860374531783</v>
+        <v>6.829552961088001</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -4595,19 +4265,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>190.1874850621357</v>
+        <v>193.966330782976</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5339170893490326</v>
+        <v>0.476380891769451</v>
       </c>
       <c r="D27" t="n">
-        <v>2832.759567378476</v>
+        <v>2844.148114135664</v>
       </c>
       <c r="E27" t="n">
-        <v>61.43538808343533</v>
+        <v>53.48973087181663</v>
       </c>
       <c r="F27" t="n">
-        <v>6.982319230570926</v>
+        <v>7.057887892700597</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -4620,19 +4290,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>175.099579970728</v>
+        <v>171.939304686493</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6024479297565929</v>
+        <v>0.5400156638918108</v>
       </c>
       <c r="D28" t="n">
-        <v>2794.641850780569</v>
+        <v>2791.756128763137</v>
       </c>
       <c r="E28" t="n">
-        <v>15.5179211783137</v>
+        <v>14.95332454734173</v>
       </c>
       <c r="F28" t="n">
-        <v>6.84496017836904</v>
+        <v>6.886962595835571</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -4645,19 +4315,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>186.683415654716</v>
+        <v>188.6483481702102</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5339170893490326</v>
+        <v>0.476380891769451</v>
       </c>
       <c r="D29" t="n">
-        <v>2825.07298797938</v>
+        <v>2832.701600590103</v>
       </c>
       <c r="E29" t="n">
-        <v>76.95330926174903</v>
+        <v>68.44305541915836</v>
       </c>
       <c r="F29" t="n">
-        <v>6.965666532612376</v>
+        <v>7.033242550924862</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -4670,22 +4340,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>127.2113854571493</v>
+        <v>123.3623536960943</v>
       </c>
       <c r="C30" t="n">
-        <v>0.248485943908111</v>
+        <v>0.2207721651639773</v>
       </c>
       <c r="D30" t="n">
-        <v>2704.165981119771</v>
+        <v>2710.474688030615</v>
       </c>
       <c r="E30" t="n">
-        <v>76.95330926174903</v>
+        <v>68.44305541915836</v>
       </c>
       <c r="F30" t="n">
-        <v>7.02439319252335</v>
+        <v>7.093183342990399</v>
       </c>
       <c r="G30" t="n">
-        <v>99.44796340281357</v>
+        <v>99.98659683878502</v>
       </c>
     </row>
     <row r="31">
@@ -4695,22 +4365,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.2271913168952</v>
+        <v>107.7174706421299</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1493902801649282</v>
+        <v>0.1327264581168324</v>
       </c>
       <c r="D31" t="n">
-        <v>2632.368095567922</v>
+        <v>2638.823278944504</v>
       </c>
       <c r="E31" t="n">
-        <v>76.95330926174903</v>
+        <v>68.44305541915836</v>
       </c>
       <c r="F31" t="n">
-        <v>7.066806760767922</v>
+        <v>7.135901719537856</v>
       </c>
       <c r="G31" t="n">
-        <v>97.2801299413052</v>
+        <v>97.81939218880629</v>
       </c>
     </row>
     <row r="32">
@@ -4720,22 +4390,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>111.2271913168952</v>
+        <v>107.7174706421299</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1493902801649282</v>
+        <v>0.1327264581168324</v>
       </c>
       <c r="D32" t="n">
-        <v>2632.368095567922</v>
+        <v>2638.823278944504</v>
       </c>
       <c r="E32" t="n">
-        <v>76.95330926174903</v>
+        <v>68.44305541915836</v>
       </c>
       <c r="F32" t="n">
-        <v>7.066806760767922</v>
+        <v>7.135901719537856</v>
       </c>
       <c r="G32" t="n">
-        <v>97.2801299413052</v>
+        <v>97.81939218880629</v>
       </c>
     </row>
     <row r="33">
@@ -4745,22 +4415,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>40.4694595230701</v>
+        <v>38.14293235200904</v>
       </c>
       <c r="C33" t="n">
-        <v>0.00757178377985105</v>
+        <v>0.006684295014828838</v>
       </c>
       <c r="D33" t="n">
-        <v>2285.025014155122</v>
+        <v>2283.738009984069</v>
       </c>
       <c r="E33" t="n">
-        <v>76.95330926174903</v>
+        <v>68.44305541915836</v>
       </c>
       <c r="F33" t="n">
-        <v>7.324193425615995</v>
+        <v>7.370592510029013</v>
       </c>
       <c r="G33" t="n">
-        <v>87.96914738251397</v>
+        <v>88.11620622075527</v>
       </c>
     </row>
     <row r="34">
@@ -4770,16 +4440,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>40.46945952141601</v>
+        <v>38.14293235438117</v>
       </c>
       <c r="C34" t="n">
-        <v>0.00757178377985105</v>
+        <v>0.006684295014828838</v>
       </c>
       <c r="D34" t="n">
-        <v>169.495386103222</v>
+        <v>159.7706566990804</v>
       </c>
       <c r="E34" t="n">
-        <v>76.95330926174903</v>
+        <v>68.44305541915836</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -4791,16 +4461,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>40.57873532374521</v>
+        <v>39.09925971900418</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>170.5614933563492</v>
+        <v>164.3803379348998</v>
       </c>
       <c r="E35" t="n">
-        <v>76.95330926174903</v>
+        <v>68.44305541915836</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
@@ -4896,16 +4566,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>519.8232078848972</v>
+        <v>496.9511967724745</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>3512.034774695051</v>
+        <v>3461.516282034162</v>
       </c>
       <c r="E40" t="n">
-        <v>38.57369966144585</v>
+        <v>7.232936057846831</v>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -4938,16 +4608,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>534.8232078848972</v>
+        <v>511.9511967724745</v>
       </c>
       <c r="C42" t="n">
-        <v>3.83050800666108</v>
+        <v>6.191638213085064</v>
       </c>
       <c r="D42" t="n">
-        <v>3527.323163619118</v>
+        <v>3449.357637295026</v>
       </c>
       <c r="E42" t="n">
-        <v>41.31135030764653</v>
+        <v>8.374096512468231</v>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
@@ -5049,7 +4719,7 @@
         <v>3687.984095444761</v>
       </c>
       <c r="E2" t="n">
-        <v>45.44179595436075</v>
+        <v>8.520769523700242</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -5092,7 +4762,7 @@
         <v>3030.242194144161</v>
       </c>
       <c r="E3" t="n">
-        <v>45.44179595436075</v>
+        <v>8.520769523700242</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -5135,7 +4805,7 @@
         <v>2555.053440566289</v>
       </c>
       <c r="E4" t="n">
-        <v>45.44179595436075</v>
+        <v>8.520769523700242</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -5178,7 +4848,7 @@
         <v>791.1357141934237</v>
       </c>
       <c r="E5" t="n">
-        <v>45.44179595436075</v>
+        <v>8.520769523700242</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -5218,10 +4888,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1348.041621038311</v>
+        <v>1348.04162103831</v>
       </c>
       <c r="E6" t="n">
-        <v>18.07474255513433</v>
+        <v>3.389186370785088</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -5230,22 +4900,22 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1686684666338336</v>
+        <v>0.1686684666338337</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05094889585944177</v>
+        <v>0.05094889585944153</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09767435453489638</v>
+        <v>0.09767435453489641</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6806996788173056</v>
+        <v>0.6806996788173059</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002008604154522552</v>
+        <v>0.002008604154522553</v>
       </c>
     </row>
     <row r="7">
@@ -5255,16 +4925,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>68.89039853363778</v>
+        <v>37.90152249156853</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>1253.858122536166</v>
+        <v>1165.71700628981</v>
       </c>
       <c r="E7" t="n">
-        <v>365775.9950500099</v>
+        <v>68582.99907187685</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -5298,16 +4968,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>68.89039853363778</v>
+        <v>37.90152249156853</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>1176.933032819057</v>
+        <v>1058.106337955132</v>
       </c>
       <c r="E8" t="n">
-        <v>345103.4724731601</v>
+        <v>63430.03658398608</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -5316,22 +4986,22 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1749493387248126</v>
+        <v>0.1770967065757973</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01540257634858164</v>
+        <v>0.003317404326085149</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1010972235190077</v>
+        <v>0.1023381137629543</v>
       </c>
       <c r="L8" t="n">
-        <v>0.706468088281535</v>
+        <v>0.7151394377795093</v>
       </c>
       <c r="M8" t="n">
-        <v>0.002082773126063107</v>
+        <v>0.002108337555653994</v>
       </c>
     </row>
     <row r="9">
@@ -5341,16 +5011,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>68.89039853363778</v>
+        <v>37.90152249156853</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>1176.933032819057</v>
+        <v>1058.106337955131</v>
       </c>
       <c r="E9" t="n">
-        <v>22.88440781063612</v>
+        <v>3.323752540554588</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -5359,22 +5029,22 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1749493387248126</v>
+        <v>0.1770967065757973</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.01540257634858164</v>
+        <v>0.003317404326085149</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1010972235190077</v>
+        <v>0.1023381137629543</v>
       </c>
       <c r="L9" t="n">
-        <v>0.706468088281535</v>
+        <v>0.7151394377795093</v>
       </c>
       <c r="M9" t="n">
-        <v>0.002082773126063107</v>
+        <v>0.002108337555653994</v>
       </c>
     </row>
     <row r="10">
@@ -5384,13 +5054,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>68.89039853363778</v>
+        <v>37.90152249156853</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>1176.933032819057</v>
+        <v>1058.106337955131</v>
       </c>
       <c r="E10" t="n">
         <v>1.081111111111111</v>
@@ -5402,22 +5072,22 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1749493387248126</v>
+        <v>0.1770967065757973</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01540257634858164</v>
+        <v>0.003317404326085149</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1010972235190077</v>
+        <v>0.1023381137629543</v>
       </c>
       <c r="L10" t="n">
-        <v>0.706468088281535</v>
+        <v>0.7151394377795093</v>
       </c>
       <c r="M10" t="n">
-        <v>0.002082773126063107</v>
+        <v>0.002108337555653994</v>
       </c>
     </row>
     <row r="11">
@@ -5436,7 +5106,7 @@
         <v>293.1871693088577</v>
       </c>
       <c r="E11" t="n">
-        <v>945.1895005153433</v>
+        <v>139.5833654328756</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -5463,7 +5133,7 @@
         <v>631.5000402827663</v>
       </c>
       <c r="E12" t="n">
-        <v>945.1895005153433</v>
+        <v>139.5833654328756</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -5487,25 +5157,25 @@
         <v>1.2</v>
       </c>
       <c r="D13" t="n">
-        <v>1186.972770918916</v>
+        <v>1186.00301717249</v>
       </c>
       <c r="E13" t="n">
-        <v>968.0739112089805</v>
+        <v>142.9071206525144</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7493418122188148</v>
+        <v>0.7497998558436247</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1678734524603385</v>
+        <v>0.1678642942694569</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0169297819262364</v>
+        <v>0.01699599559959542</v>
       </c>
       <c r="I13" t="n">
-        <v>0.009606946310497626</v>
+        <v>0.009612818664661855</v>
       </c>
       <c r="J13" t="n">
-        <v>0.05624800708411271</v>
+        <v>0.05572703562266111</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -5524,31 +5194,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>315.4016713247572</v>
+        <v>315.3759482492491</v>
       </c>
       <c r="C14" t="n">
         <v>0.1</v>
       </c>
       <c r="D14" t="n">
-        <v>691.0742432508268</v>
+        <v>690.2246160239174</v>
       </c>
       <c r="E14" t="n">
-        <v>968.0739112089805</v>
+        <v>142.9071206525144</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7493418122188148</v>
+        <v>0.7497998558436247</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1678734524603385</v>
+        <v>0.1678642942694569</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0169297819262364</v>
+        <v>0.01699599559959542</v>
       </c>
       <c r="I14" t="n">
-        <v>0.009606946310497626</v>
+        <v>0.009612818664661855</v>
       </c>
       <c r="J14" t="n">
-        <v>0.05624800708411271</v>
+        <v>0.05572703562266111</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -5573,25 +5243,25 @@
         <v>0.1</v>
       </c>
       <c r="D15" t="n">
-        <v>431.1443388280757</v>
+        <v>430.3973693651839</v>
       </c>
       <c r="E15" t="n">
-        <v>968.0739112089805</v>
+        <v>142.9071206525144</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7493418122188148</v>
+        <v>0.7497998558436247</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1678734524603385</v>
+        <v>0.1678642942694569</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0169297819262364</v>
+        <v>0.01699599559959542</v>
       </c>
       <c r="I15" t="n">
-        <v>0.009606946310497626</v>
+        <v>0.009612818664661855</v>
       </c>
       <c r="J15" t="n">
-        <v>0.05624800708411271</v>
+        <v>0.05572703562266111</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
